--- a/biology/Botanique/Calathea/Calathea.xlsx
+++ b/biology/Botanique/Calathea/Calathea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calathea est un genre de plantes monocotylédones appartenant à la famille des Marantaceae. Ce genre comprend aujourd'hui 56 espèces de plantes herbacées. De nombreuses espèces autrefois classées dans le genre Calathea sont aujourd'hui classées dans le genre Goeppertia [3]. Quelques espèces sont cultivées pour leurs grandes feuilles.
-Le Calathea a pour origine l'Amérique du sud et plus encore les forêts chaudes et humides[4].
+          <t xml:space="preserve">Calathea est un genre de plantes monocotylédones appartenant à la famille des Marantaceae. Ce genre comprend aujourd'hui 56 espèces de plantes herbacées. De nombreuses espèces autrefois classées dans le genre Calathea sont aujourd'hui classées dans le genre Goeppertia . Quelques espèces sont cultivées pour leurs grandes feuilles.
+Le Calathea a pour origine l'Amérique du sud et plus encore les forêts chaudes et humides.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon BioLib                    (5 janvier 2020)[2] :
+          <t xml:space="preserve">Selon BioLib                    (5 janvier 2020) :
 Calathea ackermannii Körn.
 Calathea acuminata Steyerm.
 Calathea aemula Körn.
@@ -804,7 +818,7 @@
 Calathea wiotii (E. Morren) Regel
 Calathea zebrina (Sims) Lindl.
 Calathea zingiberina Körn.
-Selon Catalogue of Life                                   (5 janvier 2020)[5] :
+Selon Catalogue of Life                                   (5 janvier 2020) :
 Calathea anderssonii H.Kenn.
 Calathea anulque H.Kenn.
 Calathea asplundii H.Kenn.
@@ -860,7 +874,7 @@
 Calathea utilis H.Kenn.
 Calathea verruculosa H.Kenn.
 Calathea violacea Lindl.
-Selon World Checklist of Selected Plant Families (WCSP)  (5 janvier 2020)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (5 janvier 2020) :
 Calathea anderssonii H.Kenn. (1985)
 Calathea anulque H.Kenn. (1988)
 Calathea asplundii H.Kenn. (1988)
@@ -919,7 +933,7 @@
 Calathea velutinifolia H.Kenn. (2017)
 Calathea verruculosa H.Kenn. (2011)
 Calathea yawankama H.Kenn. (2018)
-Selon The Plant List            (5 janvier 2020)[7] :
+Selon The Plant List            (5 janvier 2020) :
 Calathea ackermannii Körn.
 Calathea acuminata Steyerm.
 Calathea aemula Körn.
@@ -1207,7 +1221,7 @@
 Calathea wiotii (E.Morren) Regel
 Calathea zebrina (Sims) Lindl.
 Calathea zingiberina Körn.
-Selon Tropicos                                           (5 janvier 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 janvier 2020) (Attention liste brute contenant possiblement des synonymes) :
 Calathea aberrans Huber
 Calathea achira (Poepp. &amp; Endl.) Petersen
 Calathea ackermani Körn.
@@ -1513,7 +1527,7 @@
 Calathea prasina (W. Bull) N.E. Br.
 Calathea princeps (Linden) Regel
 Calathea prolifera (Vell.) J.M.A. Braga
-Calathea pro</t>
+Calathea propinqua (Poepp. </t>
         </is>
       </c>
     </row>
